--- a/data/trans_dic/IP16B01-Edad-trans_dic.xlsx
+++ b/data/trans_dic/IP16B01-Edad-trans_dic.xlsx
@@ -732,7 +732,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>10/15</t>
+          <t>5/9</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -747,42 +747,42 @@
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>88,52%</t>
+          <t>96,06%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>92,68%</t>
+          <t>81,77%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,96%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>79,92%</t>
+          <t>72,17%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>75,84%</t>
+          <t>84,9%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,85%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>83,22%</t>
+          <t>85,63%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>83,61%</t>
+          <t>83,58%</t>
         </is>
       </c>
     </row>
@@ -795,54 +795,54 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0; 2,31</t>
+          <t>0; 2,95</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>71,25; 96,65</t>
+          <t>86,27; 100,0</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>77,24; 100,0</t>
+          <t>62,56; 93,12</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0; 2,9</t>
+          <t>0,0; 10,41</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>66,67; 90,07</t>
+          <t>54,68; 84,73</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>56,48; 89,37</t>
+          <t>70,23; 93,6</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0; 1,3</t>
+          <t>0,0; 4,32</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>71,93; 90,96</t>
+          <t>77,42; 92,5</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>72,62; 92,52</t>
+          <t>73,24; 91,26</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>5/9</t>
+          <t>10/15</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -857,42 +857,42 @@
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>96,06%</t>
+          <t>88,52%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>81,77%</t>
+          <t>92,68%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>1,96%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>72,17%</t>
+          <t>79,92%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>84,9%</t>
+          <t>75,84%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,85%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>85,63%</t>
+          <t>83,22%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>83,58%</t>
+          <t>83,61%</t>
         </is>
       </c>
     </row>
@@ -905,47 +905,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0; 2,95</t>
+          <t>0; 2,31</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>86,27; 100,0</t>
+          <t>71,25; 96,65</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>62,56; 93,12</t>
+          <t>77,24; 100,0</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 10,41</t>
+          <t>0; 2,9</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>54,68; 84,73</t>
+          <t>66,67; 90,07</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>70,23; 93,6</t>
+          <t>56,48; 89,37</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,32</t>
+          <t>0; 1,3</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>77,42; 92,5</t>
+          <t>71,93; 90,96</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>73,24; 91,26</t>
+          <t>72,62; 92,52</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/IP16B01-Edad-trans_dic.xlsx
+++ b/data/trans_dic/IP16B01-Edad-trans_dic.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:K14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>0/4</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -637,42 +637,42 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>93,18%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>90,39%</t>
+          <t>95,59%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>1,48%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>90,73%</t>
+          <t>95,34%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>82,66%</t>
+          <t>92,04%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,75%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>92,0%</t>
+          <t>97,66%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>86,59%</t>
+          <t>93,83%</t>
         </is>
       </c>
     </row>
@@ -685,54 +685,54 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0; 2,74</t>
+          <t>0; 4,25</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>81,25; 97,74</t>
+          <t>94,97; 100</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>77,7; 97,4</t>
+          <t>73,4; 100,0</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 7,17</t>
+          <t>0; 4,07</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>81,4; 95,64</t>
+          <t>83,78; 100,0</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>68,1; 92,47</t>
+          <t>73,57; 100,0</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,76</t>
+          <t>0; 2,11</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>86,43; 96,21</t>
+          <t>92,78; 100,0</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>77,28; 93,3</t>
+          <t>83,86; 98,21</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>5/9</t>
+          <t>3-7</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -747,42 +747,42 @@
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>96,06%</t>
+          <t>90,76%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>81,77%</t>
+          <t>89,65%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>1,96%</t>
+          <t>3,12%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>72,17%</t>
+          <t>81,89%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>84,9%</t>
+          <t>82,67%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>0,85%</t>
+          <t>1,43%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>85,63%</t>
+          <t>86,93%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>83,58%</t>
+          <t>86,05%</t>
         </is>
       </c>
     </row>
@@ -795,54 +795,54 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0; 2,95</t>
+          <t>0; 2,49</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>86,27; 100,0</t>
+          <t>81,94; 96,03</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>62,56; 93,12</t>
+          <t>77,04; 96,97</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 10,41</t>
+          <t>0,0; 10,87</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>54,68; 84,73</t>
+          <t>71,03; 91,0</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>70,23; 93,6</t>
+          <t>67,37; 91,87</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,32</t>
+          <t>0,0; 4,5</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>77,42; 92,5</t>
+          <t>79,86; 91,83</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>73,24; 91,26</t>
+          <t>77,22; 92,91</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/15</t>
+          <t>8-11</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -857,12 +857,12 @@
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>88,52%</t>
+          <t>95,84%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>92,68%</t>
+          <t>66,3%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
@@ -872,12 +872,12 @@
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>79,92%</t>
+          <t>69,69%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>75,84%</t>
+          <t>83,73%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
@@ -887,12 +887,12 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>83,22%</t>
+          <t>82,26%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>83,61%</t>
+          <t>77,46%</t>
         </is>
       </c>
     </row>
@@ -905,54 +905,54 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0; 2,31</t>
+          <t>0; 5,16</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>71,25; 96,65</t>
+          <t>77,51; 100,0</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>77,24; 100,0</t>
+          <t>42,99; 85,73</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0; 2,9</t>
+          <t>0; 5,61</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>66,67; 90,07</t>
+          <t>46,28; 86,93</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>56,48; 89,37</t>
+          <t>68,16; 94,16</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0; 1,3</t>
+          <t>0; 2,74</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>71,93; 90,96</t>
+          <t>67,9; 92,8</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>72,62; 92,52</t>
+          <t>64,25; 88,05</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>12-15</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -967,42 +967,42 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>93,44%</t>
+          <t>85,41%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>88,32%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>1,08%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>82,35%</t>
+          <t>74,84%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>81,71%</t>
+          <t>55,77%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>0,5%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>87,91%</t>
+          <t>78,35%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>84,79%</t>
+          <t>79,72%</t>
         </is>
       </c>
     </row>
@@ -1015,54 +1015,172 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
+          <t>0; 3,19</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>61,67; 100,0</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>88,17; 100</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>0; 4,16</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>55,75; 88,75</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>28,57; 80,06</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>0; 1,83</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>62,81; 88,47</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>61,42; 90,93</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>93,44%</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>88,32%</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>1,08%</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>82,35%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>81,71%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>0,5%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>87,91%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>84,79%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
           <t>0; 0,89</t>
         </is>
       </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>87,87; 96,99</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>81,16; 93,98</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 3,51</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>75,19; 88,06</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>73,73; 88,63</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 1,77</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>83,68; 91,27</t>
-        </is>
-      </c>
-      <c r="K11" s="2" t="inlineStr">
-        <is>
-          <t>80,18; 89,58</t>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>88,29; 96,69</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>80,65; 93,66</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 4,39</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>75,31; 88,51</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>73,2; 88,58</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 1,64</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>83,75; 91,39</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>79,29; 88,73</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="F1:H1"/>
     <mergeCell ref="I1:K1"/>

--- a/data/trans_dic/IP16B01-Edad-trans_dic.xlsx
+++ b/data/trans_dic/IP16B01-Edad-trans_dic.xlsx
@@ -572,7 +572,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -587,7 +587,7 @@
       </c>
       <c r="H2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="I2" s="3" t="inlineStr">
@@ -602,7 +602,7 @@
       </c>
       <c r="K2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
     </row>
@@ -695,7 +695,7 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>73,4; 100,0</t>
+          <t>76,55; 100,0</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -705,12 +705,12 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>83,78; 100,0</t>
+          <t>85,53; 100,0</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>73,57; 100,0</t>
+          <t>72,72; 100,0</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -720,12 +720,12 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>92,78; 100,0</t>
+          <t>91,77; 100,0</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>83,86; 98,21</t>
+          <t>84,7; 98,22</t>
         </is>
       </c>
     </row>
@@ -800,42 +800,42 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>81,94; 96,03</t>
+          <t>81,72; 96,31</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>77,04; 96,97</t>
+          <t>76,94; 95,48</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 10,87</t>
+          <t>0,0; 11,12</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>71,03; 91,0</t>
+          <t>68,39; 90,82</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>67,37; 91,87</t>
+          <t>68,97; 92,05</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,5</t>
+          <t>0,0; 4,98</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>79,86; 91,83</t>
+          <t>80,69; 92,34</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>77,22; 92,91</t>
+          <t>76,71; 92,12</t>
         </is>
       </c>
     </row>
@@ -910,12 +910,12 @@
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>77,51; 100,0</t>
+          <t>81,81; 100,0</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>42,99; 85,73</t>
+          <t>42,1; 84,88</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -925,12 +925,12 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>46,28; 86,93</t>
+          <t>47,1; 86,52</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>68,16; 94,16</t>
+          <t>65,53; 94,27</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
@@ -940,12 +940,12 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>67,9; 92,8</t>
+          <t>66,63; 91,94</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>64,25; 88,05</t>
+          <t>63,27; 87,36</t>
         </is>
       </c>
     </row>
@@ -1020,7 +1020,7 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>61,67; 100,0</t>
+          <t>55,17; 100,0</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -1035,12 +1035,12 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>55,75; 88,75</t>
+          <t>56,15; 89,3</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>28,57; 80,06</t>
+          <t>27,51; 79,67</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1050,12 +1050,12 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>62,81; 88,47</t>
+          <t>64,37; 90,21</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>61,42; 90,93</t>
+          <t>60,92; 92,73</t>
         </is>
       </c>
     </row>
@@ -1130,42 +1130,42 @@
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>88,29; 96,69</t>
+          <t>87,91; 97,08</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>80,65; 93,66</t>
+          <t>80,36; 93,73</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,39</t>
+          <t>0,0; 4,65</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>75,31; 88,51</t>
+          <t>75,4; 87,8</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>73,2; 88,58</t>
+          <t>73,93; 88,61</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,64</t>
+          <t>0,0; 1,75</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>83,75; 91,39</t>
+          <t>83,19; 91,47</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>79,29; 88,73</t>
+          <t>79,13; 88,88</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/IP16B01-Edad-trans_dic.xlsx
+++ b/data/trans_dic/IP16B01-Edad-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -537,14 +537,14 @@
       <c r="B1" s="2" t="n"/>
       <c r="C1" s="3" t="inlineStr">
         <is>
-          <t>Hombre</t>
+          <t>Niña</t>
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="inlineStr">
         <is>
-          <t>Mujer</t>
+          <t>Niño</t>
         </is>
       </c>
       <c r="G1" s="3" t="n"/>
@@ -637,27 +637,27 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
+          <t>95,34%</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>92,04%</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
           <t>100,0%</t>
         </is>
       </c>
-      <c r="E4" s="2" t="inlineStr">
+      <c r="H4" s="2" t="inlineStr">
         <is>
           <t>95,59%</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>95,34%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>92,04%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
@@ -685,32 +685,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
+          <t>0; 4,07</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>83,83; 100,0</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>73,04; 100,0</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
           <t>0; 4,25</t>
         </is>
       </c>
-      <c r="D5" s="2" t="inlineStr">
+      <c r="G5" s="2" t="inlineStr">
         <is>
           <t>94,97; 100</t>
         </is>
       </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>76,55; 100,0</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>0; 4,07</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>85,53; 100,0</t>
-        </is>
-      </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>72,72; 100,0</t>
+          <t>74,46; 100,0</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -720,12 +720,12 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>91,77; 100,0</t>
+          <t>91,7; 100,0</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>84,7; 98,22</t>
+          <t>83,68; 98,22</t>
         </is>
       </c>
     </row>
@@ -742,32 +742,32 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
+          <t>3,12%</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>81,89%</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>82,67%</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr">
+      <c r="G6" s="2" t="inlineStr">
         <is>
           <t>90,76%</t>
         </is>
       </c>
-      <c r="E6" s="2" t="inlineStr">
+      <c r="H6" s="2" t="inlineStr">
         <is>
           <t>89,65%</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>3,12%</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>81,89%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>82,67%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
@@ -795,47 +795,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
+          <t>0,0; 9,74</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>68,89; 90,88</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>67,94; 91,51</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
           <t>0; 2,49</t>
         </is>
       </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>81,72; 96,31</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>76,94; 95,48</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 11,12</t>
-        </is>
-      </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>68,39; 90,82</t>
+          <t>79,6; 95,81</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>68,97; 92,05</t>
+          <t>78,01; 97,46</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,98</t>
+          <t>0,0; 5,63</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>80,69; 92,34</t>
+          <t>79,82; 92,28</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>76,71; 92,12</t>
+          <t>76,42; 92,23</t>
         </is>
       </c>
     </row>
@@ -857,27 +857,27 @@
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
+          <t>69,69%</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>83,73%</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
           <t>95,84%</t>
         </is>
       </c>
-      <c r="E8" s="2" t="inlineStr">
+      <c r="H8" s="2" t="inlineStr">
         <is>
           <t>66,3%</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>69,69%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>83,73%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
@@ -905,32 +905,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
+          <t>0; 5,61</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>46,76; 87,95</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>67,01; 93,82</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
           <t>0; 5,16</t>
         </is>
       </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>81,81; 100,0</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>42,1; 84,88</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>0; 5,61</t>
-        </is>
-      </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>47,1; 86,52</t>
+          <t>76,2; 100,0</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>65,53; 94,27</t>
+          <t>40,23; 84,65</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
@@ -940,12 +940,12 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>66,63; 91,94</t>
+          <t>68,25; 91,36</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>63,27; 87,36</t>
+          <t>63,45; 88,39</t>
         </is>
       </c>
     </row>
@@ -967,27 +967,27 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
+          <t>74,84%</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>55,77%</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
           <t>85,41%</t>
         </is>
       </c>
-      <c r="E10" s="2" t="inlineStr">
+      <c r="H10" s="2" t="inlineStr">
         <is>
           <t>100,0%</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>74,84%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>55,77%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
@@ -1015,34 +1015,34 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
+          <t>0; 4,16</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>55,23; 88,9</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>27,3; 80,29</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
           <t>0; 3,19</t>
         </is>
       </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>55,17; 100,0</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>56,57; 100,0</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
         <is>
           <t>88,17; 100</t>
         </is>
       </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>0; 4,16</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>56,15; 89,3</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>27,51; 79,67</t>
-        </is>
-      </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
           <t>0; 1,83</t>
@@ -1050,12 +1050,12 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>64,37; 90,21</t>
+          <t>63,68; 88,42</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>60,92; 92,73</t>
+          <t>62,0; 92,67</t>
         </is>
       </c>
     </row>
@@ -1072,32 +1072,32 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
+          <t>1,08%</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>82,35%</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>81,71%</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="D12" s="2" t="inlineStr">
+      <c r="G12" s="2" t="inlineStr">
         <is>
           <t>93,44%</t>
         </is>
       </c>
-      <c r="E12" s="2" t="inlineStr">
+      <c r="H12" s="2" t="inlineStr">
         <is>
           <t>88,32%</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>1,08%</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>82,35%</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>81,71%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
@@ -1125,47 +1125,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
+          <t>0,0; 3,51</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>75,19; 88,06</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>73,73; 88,63</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
           <t>0; 0,89</t>
         </is>
       </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>87,91; 97,08</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>80,36; 93,73</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 4,65</t>
-        </is>
-      </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>75,4; 87,8</t>
+          <t>87,87; 96,99</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>73,93; 88,61</t>
+          <t>81,16; 93,98</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,75</t>
+          <t>0,0; 1,77</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>83,19; 91,47</t>
+          <t>83,68; 91,27</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>79,13; 88,88</t>
+          <t>80,18; 89,58</t>
         </is>
       </c>
     </row>
